--- a/constantData.xlsx
+++ b/constantData.xlsx
@@ -65,7 +65,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>40513.6988734694</v>
+        <v>40515.5908571204</v>
       </c>
       <c r="B2" s="1">
         <v>0.000000</v>
@@ -73,1914 +73,1594 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>40513.6988850435</v>
+        <v>40515.5908686944</v>
       </c>
       <c r="B3" s="1">
-        <v>17.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>40513.6988966176</v>
+        <v>40515.5908802685</v>
       </c>
       <c r="B4" s="1">
-        <v>20.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40513.6989081917</v>
+        <v>40515.5908918426</v>
       </c>
       <c r="B5" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40513.6989197657</v>
+        <v>40515.5909034167</v>
       </c>
       <c r="B6" s="1">
-        <v>30.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40513.6989313398</v>
+        <v>40515.5909149907</v>
       </c>
       <c r="B7" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40513.6989429139</v>
+        <v>40515.5909265648</v>
       </c>
       <c r="B8" s="1">
-        <v>17.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40513.6989544880</v>
+        <v>40515.5909381389</v>
       </c>
       <c r="B9" s="1">
-        <v>18.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40513.6989660620</v>
+        <v>40515.5909497130</v>
       </c>
       <c r="B10" s="1">
-        <v>22.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40513.6989776361</v>
+        <v>40515.5909612870</v>
       </c>
       <c r="B11" s="1">
-        <v>23.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40513.6989892102</v>
+        <v>40515.5909728611</v>
       </c>
       <c r="B12" s="1">
-        <v>24.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40513.6990007842</v>
+        <v>40515.5909844352</v>
       </c>
       <c r="B13" s="1">
-        <v>10.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40513.6990123583</v>
+        <v>40515.5909960093</v>
       </c>
       <c r="B14" s="1">
-        <v>18.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40513.6990239324</v>
+        <v>40515.5910075833</v>
       </c>
       <c r="B15" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40513.6990355065</v>
+        <v>40515.5910191574</v>
       </c>
       <c r="B16" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40513.6990470805</v>
+        <v>40515.5910307315</v>
       </c>
       <c r="B17" s="1">
-        <v>24.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40513.6990586546</v>
+        <v>40515.5910423056</v>
       </c>
       <c r="B18" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40513.6990702287</v>
+        <v>40515.5910538796</v>
       </c>
       <c r="B19" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40513.6990818028</v>
+        <v>40515.5910654537</v>
       </c>
       <c r="B20" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40513.6990933768</v>
+        <v>40515.5910770278</v>
       </c>
       <c r="B21" s="1">
-        <v>18.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40513.6991049509</v>
+        <v>40515.5910886019</v>
       </c>
       <c r="B22" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>40513.6991165250</v>
+        <v>40515.5911001759</v>
       </c>
       <c r="B23" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>40513.6991280991</v>
+        <v>40515.5911117500</v>
       </c>
       <c r="B24" s="1">
-        <v>20.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>40513.6991396731</v>
+        <v>40515.5911233241</v>
       </c>
       <c r="B25" s="1">
-        <v>19.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>40513.6991512472</v>
+        <v>40515.5911348981</v>
       </c>
       <c r="B26" s="1">
-        <v>26.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>40513.6991628213</v>
+        <v>40515.5911464722</v>
       </c>
       <c r="B27" s="1">
-        <v>7.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>40513.6991743954</v>
+        <v>40515.5911580463</v>
       </c>
       <c r="B28" s="1">
-        <v>14.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>40513.6991859694</v>
+        <v>40515.5911696204</v>
       </c>
       <c r="B29" s="1">
-        <v>14.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>40513.6991975435</v>
+        <v>40515.5911811944</v>
       </c>
       <c r="B30" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>40513.6992091176</v>
+        <v>40515.5911927685</v>
       </c>
       <c r="B31" s="1">
-        <v>21.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>40513.6992206917</v>
+        <v>40515.5912043426</v>
       </c>
       <c r="B32" s="1">
-        <v>23.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>40513.6992322657</v>
+        <v>40515.5912159167</v>
       </c>
       <c r="B33" s="1">
-        <v>20.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>40513.6992438398</v>
+        <v>40515.5912274907</v>
       </c>
       <c r="B34" s="1">
-        <v>18.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>40513.6992554139</v>
+        <v>40515.5912390648</v>
       </c>
       <c r="B35" s="1">
-        <v>21.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>40513.6992669879</v>
+        <v>40515.5912506389</v>
       </c>
       <c r="B36" s="1">
-        <v>18.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>40513.6992785620</v>
+        <v>40515.5912622130</v>
       </c>
       <c r="B37" s="1">
-        <v>14.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>40513.6992901361</v>
+        <v>40515.5912737870</v>
       </c>
       <c r="B38" s="1">
-        <v>26.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>40513.6993017102</v>
+        <v>40515.5912853611</v>
       </c>
       <c r="B39" s="1">
-        <v>22.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>40513.6993132842</v>
+        <v>40515.5912969352</v>
       </c>
       <c r="B40" s="1">
-        <v>23.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>40513.6993248583</v>
+        <v>40515.5913085093</v>
       </c>
       <c r="B41" s="1">
-        <v>17.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>40513.6993364324</v>
+        <v>40515.5913200833</v>
       </c>
       <c r="B42" s="1">
-        <v>30.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>40513.6993480065</v>
+        <v>40515.5913316574</v>
       </c>
       <c r="B43" s="1">
-        <v>25.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>40513.6993595805</v>
+        <v>40515.5913432315</v>
       </c>
       <c r="B44" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>40513.6993711546</v>
+        <v>40515.5913548056</v>
       </c>
       <c r="B45" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>40513.6993827287</v>
+        <v>40515.5913663796</v>
       </c>
       <c r="B46" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>40513.6993943028</v>
+        <v>40515.5913779537</v>
       </c>
       <c r="B47" s="1">
-        <v>23.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>40513.6994058768</v>
+        <v>40515.5913895278</v>
       </c>
       <c r="B48" s="1">
-        <v>20.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>40513.6994174509</v>
+        <v>40515.5914011019</v>
       </c>
       <c r="B49" s="1">
-        <v>26.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>40513.6994290250</v>
+        <v>40515.5914126759</v>
       </c>
       <c r="B50" s="1">
-        <v>20.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>40513.6994405991</v>
+        <v>40515.5914242500</v>
       </c>
       <c r="B51" s="1">
-        <v>25.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>40513.6994521731</v>
+        <v>40515.5914358241</v>
       </c>
       <c r="B52" s="1">
-        <v>14.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>40513.6994637472</v>
+        <v>40515.5914473981</v>
       </c>
       <c r="B53" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>40513.6994753213</v>
+        <v>40515.5914589722</v>
       </c>
       <c r="B54" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>40513.6994868954</v>
+        <v>40515.5914705463</v>
       </c>
       <c r="B55" s="1">
-        <v>14.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>40513.6994984694</v>
+        <v>40515.5914821204</v>
       </c>
       <c r="B56" s="1">
-        <v>20.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>40513.6995100435</v>
+        <v>40515.5914936944</v>
       </c>
       <c r="B57" s="1">
-        <v>29.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>40513.6995216176</v>
+        <v>40515.5915052685</v>
       </c>
       <c r="B58" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>40513.6995331917</v>
+        <v>40515.5915168426</v>
       </c>
       <c r="B59" s="1">
-        <v>17.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>40513.6995447657</v>
+        <v>40515.5915284167</v>
       </c>
       <c r="B60" s="1">
-        <v>17.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>40513.6995563398</v>
+        <v>40515.5915399907</v>
       </c>
       <c r="B61" s="1">
-        <v>24.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>40513.6995679139</v>
+        <v>40515.5915515648</v>
       </c>
       <c r="B62" s="1">
-        <v>9.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>40513.6995794879</v>
+        <v>40515.5915631389</v>
       </c>
       <c r="B63" s="1">
-        <v>17.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>40513.6995910620</v>
+        <v>40515.5915747130</v>
       </c>
       <c r="B64" s="1">
-        <v>20.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>40513.6996026361</v>
+        <v>40515.5915862870</v>
       </c>
       <c r="B65" s="1">
-        <v>19.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>40513.6996142102</v>
+        <v>40515.5915978611</v>
       </c>
       <c r="B66" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>40513.6996257842</v>
+        <v>40515.5916094352</v>
       </c>
       <c r="B67" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>40513.6996373583</v>
+        <v>40515.5916210093</v>
       </c>
       <c r="B68" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>40513.6996489324</v>
+        <v>40515.5916325833</v>
       </c>
       <c r="B69" s="1">
-        <v>16.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>40513.6996605065</v>
+        <v>40515.5916441574</v>
       </c>
       <c r="B70" s="1">
-        <v>11.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>40513.6996720805</v>
+        <v>40515.5916557315</v>
       </c>
       <c r="B71" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>40513.6996836546</v>
+        <v>40515.5916673056</v>
       </c>
       <c r="B72" s="1">
-        <v>25.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>40513.6996952287</v>
+        <v>40515.5916788796</v>
       </c>
       <c r="B73" s="1">
-        <v>12.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>40513.6997068028</v>
+        <v>40515.5916904537</v>
       </c>
       <c r="B74" s="1">
-        <v>17.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>40513.6997183768</v>
+        <v>40515.5917020278</v>
       </c>
       <c r="B75" s="1">
-        <v>28.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>40513.6997299509</v>
+        <v>40515.5917136019</v>
       </c>
       <c r="B76" s="1">
-        <v>17.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>40513.6997415250</v>
+        <v>40515.5917251759</v>
       </c>
       <c r="B77" s="1">
-        <v>24.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>40513.6997530991</v>
+        <v>40515.5917367500</v>
       </c>
       <c r="B78" s="1">
-        <v>20.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>40513.6997646731</v>
+        <v>40515.5917483241</v>
       </c>
       <c r="B79" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>40513.6997762472</v>
+        <v>40515.5917598981</v>
       </c>
       <c r="B80" s="1">
-        <v>26.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>40513.6997878213</v>
+        <v>40515.5917714722</v>
       </c>
       <c r="B81" s="1">
-        <v>22.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>40513.6997993954</v>
+        <v>40515.5917830463</v>
       </c>
       <c r="B82" s="1">
-        <v>14.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>40513.6998109694</v>
+        <v>40515.5917946204</v>
       </c>
       <c r="B83" s="1">
-        <v>27.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>40513.6998225435</v>
+        <v>40515.5918061944</v>
       </c>
       <c r="B84" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>40513.6998341176</v>
+        <v>40515.5918177685</v>
       </c>
       <c r="B85" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>40513.6998456917</v>
+        <v>40515.5918293426</v>
       </c>
       <c r="B86" s="1">
-        <v>18.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>40513.6998572657</v>
+        <v>40515.5918409167</v>
       </c>
       <c r="B87" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>40513.6998688398</v>
+        <v>40515.5918524907</v>
       </c>
       <c r="B88" s="1">
-        <v>23.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>40513.6998804139</v>
+        <v>40515.5918640648</v>
       </c>
       <c r="B89" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>40513.6998919879</v>
+        <v>40515.5918756389</v>
       </c>
       <c r="B90" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>40513.6999035620</v>
+        <v>40515.5918872130</v>
       </c>
       <c r="B91" s="1">
-        <v>18.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>40513.6999151361</v>
+        <v>40515.5918987870</v>
       </c>
       <c r="B92" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>40513.6999267102</v>
+        <v>40515.5919103611</v>
       </c>
       <c r="B93" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>40513.6999382842</v>
+        <v>40515.5919219352</v>
       </c>
       <c r="B94" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>40513.6999498583</v>
+        <v>40515.5919335093</v>
       </c>
       <c r="B95" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>40513.6999614324</v>
+        <v>40515.5919450833</v>
       </c>
       <c r="B96" s="1">
-        <v>15.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>40513.6999730065</v>
+        <v>40515.5919566574</v>
       </c>
       <c r="B97" s="1">
-        <v>14.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>40513.6999845805</v>
+        <v>40515.5919682315</v>
       </c>
       <c r="B98" s="1">
-        <v>21.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>40513.6999961546</v>
+        <v>40515.5919798056</v>
       </c>
       <c r="B99" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>40513.7000077287</v>
+        <v>40515.5919913796</v>
       </c>
       <c r="B100" s="1">
-        <v>24.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>40513.7000193028</v>
+        <v>40515.5920029537</v>
       </c>
       <c r="B101" s="1">
-        <v>8.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>40513.7000308768</v>
+        <v>40515.5920145278</v>
       </c>
       <c r="B102" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>40513.7000424509</v>
+        <v>40515.5920261019</v>
       </c>
       <c r="B103" s="1">
-        <v>14.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>40513.7000540250</v>
+        <v>40515.5920376759</v>
       </c>
       <c r="B104" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>40513.7000655991</v>
+        <v>40515.5920492500</v>
       </c>
       <c r="B105" s="1">
-        <v>20.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>40513.7000771731</v>
+        <v>40515.5920608241</v>
       </c>
       <c r="B106" s="1">
-        <v>12.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>40513.7000887472</v>
+        <v>40515.5920723981</v>
       </c>
       <c r="B107" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>40513.7001003213</v>
+        <v>40515.5920839722</v>
       </c>
       <c r="B108" s="1">
-        <v>20.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>40513.7001118954</v>
+        <v>40515.5920955463</v>
       </c>
       <c r="B109" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>40513.7001234694</v>
+        <v>40515.5921071204</v>
       </c>
       <c r="B110" s="1">
-        <v>20.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>40513.7001350435</v>
+        <v>40515.5921186944</v>
       </c>
       <c r="B111" s="1">
-        <v>21.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>40513.7001466176</v>
+        <v>40515.5921302685</v>
       </c>
       <c r="B112" s="1">
-        <v>12.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>40513.7001581917</v>
+        <v>40515.5921418426</v>
       </c>
       <c r="B113" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>40513.7001697657</v>
+        <v>40515.5921534167</v>
       </c>
       <c r="B114" s="1">
-        <v>14.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>40513.7001813398</v>
+        <v>40515.5921649907</v>
       </c>
       <c r="B115" s="1">
-        <v>15.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>40513.7001929139</v>
+        <v>40515.5921765648</v>
       </c>
       <c r="B116" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>40513.7002044879</v>
+        <v>40515.5921881389</v>
       </c>
       <c r="B117" s="1">
-        <v>19.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>40513.7002160620</v>
+        <v>40515.5921997130</v>
       </c>
       <c r="B118" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>40513.7002276361</v>
+        <v>40515.5922112870</v>
       </c>
       <c r="B119" s="1">
-        <v>18.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>40513.7002392102</v>
+        <v>40515.5922228611</v>
       </c>
       <c r="B120" s="1">
-        <v>11.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>40513.7002507842</v>
+        <v>40515.5922344352</v>
       </c>
       <c r="B121" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>40513.7002623583</v>
+        <v>40515.5922460093</v>
       </c>
       <c r="B122" s="1">
-        <v>18.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>40513.7002739324</v>
+        <v>40515.5922575833</v>
       </c>
       <c r="B123" s="1">
-        <v>11.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>40513.7002855065</v>
+        <v>40515.5922691574</v>
       </c>
       <c r="B124" s="1">
-        <v>18.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>40513.7002970805</v>
+        <v>40515.5922807315</v>
       </c>
       <c r="B125" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>40513.7003086546</v>
+        <v>40515.5922923056</v>
       </c>
       <c r="B126" s="1">
-        <v>12.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>40513.7003202287</v>
+        <v>40515.5923038796</v>
       </c>
       <c r="B127" s="1">
-        <v>23.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>40513.7003318028</v>
+        <v>40515.5923154537</v>
       </c>
       <c r="B128" s="1">
-        <v>10.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>40513.7003433768</v>
+        <v>40515.5923270278</v>
       </c>
       <c r="B129" s="1">
-        <v>16.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>40513.7003549509</v>
+        <v>40515.5923386019</v>
       </c>
       <c r="B130" s="1">
-        <v>18.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>40513.7003665250</v>
+        <v>40515.5923501759</v>
       </c>
       <c r="B131" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>40513.7003780991</v>
+        <v>40515.5923617500</v>
       </c>
       <c r="B132" s="1">
-        <v>18.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>40513.7003896731</v>
+        <v>40515.5923733241</v>
       </c>
       <c r="B133" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>40513.7004012472</v>
+        <v>40515.5923848981</v>
       </c>
       <c r="B134" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>40513.7004128213</v>
+        <v>40515.5923964722</v>
       </c>
       <c r="B135" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>40513.7004243954</v>
+        <v>40515.5924080463</v>
       </c>
       <c r="B136" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>40513.7004359694</v>
+        <v>40515.5924196204</v>
       </c>
       <c r="B137" s="1">
-        <v>16.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>40513.7004475435</v>
+        <v>40515.5924311944</v>
       </c>
       <c r="B138" s="1">
-        <v>20.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>40513.7004591176</v>
+        <v>40515.5924427685</v>
       </c>
       <c r="B139" s="1">
-        <v>14.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>40513.7004706917</v>
+        <v>40515.5924543426</v>
       </c>
       <c r="B140" s="1">
-        <v>10.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>40513.7004822657</v>
+        <v>40515.5924659167</v>
       </c>
       <c r="B141" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>40513.7004938398</v>
+        <v>40515.5924774907</v>
       </c>
       <c r="B142" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>40513.7005054139</v>
+        <v>40515.5924890648</v>
       </c>
       <c r="B143" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>40513.7005169879</v>
+        <v>40515.5925006389</v>
       </c>
       <c r="B144" s="1">
-        <v>22.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>40513.7005285620</v>
+        <v>40515.5925122130</v>
       </c>
       <c r="B145" s="1">
-        <v>15.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>40513.7005401361</v>
+        <v>40515.5925237870</v>
       </c>
       <c r="B146" s="1">
-        <v>14.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>40513.7005517102</v>
+        <v>40515.5925353611</v>
       </c>
       <c r="B147" s="1">
-        <v>22.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>40513.7005632842</v>
+        <v>40515.5925469352</v>
       </c>
       <c r="B148" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>40513.7005748583</v>
+        <v>40515.5925585093</v>
       </c>
       <c r="B149" s="1">
-        <v>13.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>40513.7005864324</v>
+        <v>40515.5925700833</v>
       </c>
       <c r="B150" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>40513.7005980065</v>
+        <v>40515.5925816574</v>
       </c>
       <c r="B151" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>40513.7006095805</v>
+        <v>40515.5925932315</v>
       </c>
       <c r="B152" s="1">
-        <v>22.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>40513.7006211546</v>
+        <v>40515.5926048056</v>
       </c>
       <c r="B153" s="1">
-        <v>14.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>40513.7006327287</v>
+        <v>40515.5926163796</v>
       </c>
       <c r="B154" s="1">
-        <v>22.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>40513.7006443028</v>
+        <v>40515.5926279537</v>
       </c>
       <c r="B155" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>40513.7006558768</v>
+        <v>40515.5926395278</v>
       </c>
       <c r="B156" s="1">
-        <v>18.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>40513.7006674509</v>
+        <v>40515.5926511019</v>
       </c>
       <c r="B157" s="1">
-        <v>20.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>40513.7006790250</v>
+        <v>40515.5926626759</v>
       </c>
       <c r="B158" s="1">
-        <v>17.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>40513.7006905991</v>
+        <v>40515.5926742500</v>
       </c>
       <c r="B159" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>40513.7007021731</v>
+        <v>40515.5926858241</v>
       </c>
       <c r="B160" s="1">
-        <v>25.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>40513.7007137472</v>
+        <v>40515.5926973981</v>
       </c>
       <c r="B161" s="1">
-        <v>17.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>40513.7007253213</v>
+        <v>40515.5927089722</v>
       </c>
       <c r="B162" s="1">
-        <v>14.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>40513.7007368954</v>
+        <v>40515.5927205463</v>
       </c>
       <c r="B163" s="1">
-        <v>14.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>40513.7007484694</v>
+        <v>40515.5927321204</v>
       </c>
       <c r="B164" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>40513.7007600435</v>
+        <v>40515.5927436944</v>
       </c>
       <c r="B165" s="1">
-        <v>18.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>40513.7007716176</v>
+        <v>40515.5927552685</v>
       </c>
       <c r="B166" s="1">
-        <v>26.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>40513.7007831917</v>
+        <v>40515.5927668426</v>
       </c>
       <c r="B167" s="1">
-        <v>24.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>40513.7007947657</v>
+        <v>40515.5927784167</v>
       </c>
       <c r="B168" s="1">
-        <v>22.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>40513.7008063398</v>
+        <v>40515.5927899907</v>
       </c>
       <c r="B169" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>40513.7008179139</v>
+        <v>40515.5928015648</v>
       </c>
       <c r="B170" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>40513.7008294879</v>
+        <v>40515.5928131389</v>
       </c>
       <c r="B171" s="1">
-        <v>20.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>40513.7008410620</v>
+        <v>40515.5928247130</v>
       </c>
       <c r="B172" s="1">
-        <v>19.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>40513.7008526361</v>
+        <v>40515.5928362870</v>
       </c>
       <c r="B173" s="1">
-        <v>23.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>40513.7008642102</v>
+        <v>40515.5928478611</v>
       </c>
       <c r="B174" s="1">
-        <v>21.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>40513.7008757842</v>
+        <v>40515.5928594352</v>
       </c>
       <c r="B175" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>40513.7008873583</v>
+        <v>40515.5928710093</v>
       </c>
       <c r="B176" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>40513.7008989324</v>
+        <v>40515.5928825833</v>
       </c>
       <c r="B177" s="1">
-        <v>24.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>40513.7009105065</v>
+        <v>40515.5928941574</v>
       </c>
       <c r="B178" s="1">
-        <v>14.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>40513.7009220805</v>
+        <v>40515.5929057315</v>
       </c>
       <c r="B179" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>40513.7009336546</v>
+        <v>40515.5929173056</v>
       </c>
       <c r="B180" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>40513.7009452287</v>
+        <v>40515.5929288796</v>
       </c>
       <c r="B181" s="1">
-        <v>14.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>40513.7009568028</v>
+        <v>40515.5929404537</v>
       </c>
       <c r="B182" s="1">
-        <v>18.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>40513.7009683768</v>
+        <v>40515.5929520278</v>
       </c>
       <c r="B183" s="1">
-        <v>18.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>40513.7009799509</v>
+        <v>40515.5929636019</v>
       </c>
       <c r="B184" s="1">
-        <v>14.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>40513.7009915250</v>
+        <v>40515.5929751759</v>
       </c>
       <c r="B185" s="1">
-        <v>19.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>40513.7010030991</v>
+        <v>40515.5929867500</v>
       </c>
       <c r="B186" s="1">
-        <v>15.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>40513.7010146731</v>
+        <v>40515.5929983241</v>
       </c>
       <c r="B187" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>40513.7010262472</v>
+        <v>40515.5930098981</v>
       </c>
       <c r="B188" s="1">
-        <v>17.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>40513.7010378213</v>
+        <v>40515.5930214722</v>
       </c>
       <c r="B189" s="1">
-        <v>17.000000</v>
+        <v>2.000000</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>40513.7010493954</v>
+        <v>40515.5930330463</v>
       </c>
       <c r="B190" s="1">
-        <v>15.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>40513.7010609694</v>
+        <v>40515.5930446204</v>
       </c>
       <c r="B191" s="1">
-        <v>15.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>40513.7010725435</v>
+        <v>40515.5930561944</v>
       </c>
       <c r="B192" s="1">
-        <v>21.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>40513.7010841176</v>
+        <v>40515.5930677685</v>
       </c>
       <c r="B193" s="1">
-        <v>17.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>40513.7010956917</v>
+        <v>40515.5930793426</v>
       </c>
       <c r="B194" s="1">
-        <v>19.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>40513.7011072657</v>
+        <v>40515.5930909167</v>
       </c>
       <c r="B195" s="1">
-        <v>16.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>40513.7011188398</v>
+        <v>40515.5931024907</v>
       </c>
       <c r="B196" s="1">
-        <v>20.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>40513.7011304139</v>
+        <v>40515.5931140648</v>
       </c>
       <c r="B197" s="1">
-        <v>16.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>40513.7011419879</v>
+        <v>40515.5931256389</v>
       </c>
       <c r="B198" s="1">
-        <v>14.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>40513.7011535620</v>
+        <v>40515.5931372130</v>
       </c>
       <c r="B199" s="1">
-        <v>16.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>40513.7011651361</v>
+        <v>40515.5931487870</v>
       </c>
       <c r="B200" s="1">
-        <v>20.000000</v>
+        <v>1.000000</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>40513.7011767102</v>
+        <v>40515.5931603611</v>
       </c>
       <c r="B201" s="1">
-        <v>17.000000</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2">
-        <v>40513.7011882842</v>
-      </c>
-      <c r="B202" s="1">
-        <v>20.000000</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2">
-        <v>40513.7011998583</v>
-      </c>
-      <c r="B203" s="1">
-        <v>21.000000</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2">
-        <v>40513.7012114324</v>
-      </c>
-      <c r="B204" s="1">
-        <v>19.000000</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2">
-        <v>40513.7012230065</v>
-      </c>
-      <c r="B205" s="1">
-        <v>16.000000</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2">
-        <v>40513.7012345805</v>
-      </c>
-      <c r="B206" s="1">
-        <v>12.000000</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2">
-        <v>40513.7012461546</v>
-      </c>
-      <c r="B207" s="1">
-        <v>20.000000</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2">
-        <v>40513.7012577287</v>
-      </c>
-      <c r="B208" s="1">
-        <v>22.000000</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2">
-        <v>40513.7012693028</v>
-      </c>
-      <c r="B209" s="1">
-        <v>10.000000</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2">
-        <v>40513.7012808768</v>
-      </c>
-      <c r="B210" s="1">
-        <v>15.000000</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2">
-        <v>40513.7012924509</v>
-      </c>
-      <c r="B211" s="1">
-        <v>20.000000</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2">
-        <v>40513.7013040250</v>
-      </c>
-      <c r="B212" s="1">
-        <v>13.000000</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2">
-        <v>40513.7013155991</v>
-      </c>
-      <c r="B213" s="1">
-        <v>19.000000</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2">
-        <v>40513.7013271731</v>
-      </c>
-      <c r="B214" s="1">
-        <v>27.000000</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2">
-        <v>40513.7013387472</v>
-      </c>
-      <c r="B215" s="1">
-        <v>18.000000</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2">
-        <v>40513.7013503213</v>
-      </c>
-      <c r="B216" s="1">
-        <v>9.000000</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2">
-        <v>40513.7013618954</v>
-      </c>
-      <c r="B217" s="1">
-        <v>6.000000</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2">
-        <v>40513.7013734694</v>
-      </c>
-      <c r="B218" s="1">
-        <v>13.000000</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2">
-        <v>40513.7013850435</v>
-      </c>
-      <c r="B219" s="1">
-        <v>20.000000</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2">
-        <v>40513.7013966176</v>
-      </c>
-      <c r="B220" s="1">
-        <v>9.000000</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2">
-        <v>40513.7014081917</v>
-      </c>
-      <c r="B221" s="1">
-        <v>21.000000</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2">
-        <v>40513.7014197657</v>
-      </c>
-      <c r="B222" s="1">
-        <v>14.000000</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2">
-        <v>40513.7014313398</v>
-      </c>
-      <c r="B223" s="1">
-        <v>16.000000</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2">
-        <v>40513.7014429139</v>
-      </c>
-      <c r="B224" s="1">
-        <v>28.000000</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2">
-        <v>40513.7014544879</v>
-      </c>
-      <c r="B225" s="1">
-        <v>19.000000</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2">
-        <v>40513.7014660620</v>
-      </c>
-      <c r="B226" s="1">
-        <v>13.000000</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2">
-        <v>40513.7014776361</v>
-      </c>
-      <c r="B227" s="1">
-        <v>18.000000</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2">
-        <v>40513.7014892102</v>
-      </c>
-      <c r="B228" s="1">
-        <v>15.000000</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2">
-        <v>40513.7015007842</v>
-      </c>
-      <c r="B229" s="1">
-        <v>11.000000</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2">
-        <v>40513.7015123583</v>
-      </c>
-      <c r="B230" s="1">
-        <v>16.000000</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2">
-        <v>40513.7015239324</v>
-      </c>
-      <c r="B231" s="1">
-        <v>22.000000</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2">
-        <v>40513.7015355065</v>
-      </c>
-      <c r="B232" s="1">
-        <v>10.000000</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2">
-        <v>40513.7015470805</v>
-      </c>
-      <c r="B233" s="1">
-        <v>23.000000</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2">
-        <v>40513.7015586546</v>
-      </c>
-      <c r="B234" s="1">
-        <v>16.000000</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2">
-        <v>40513.7015702287</v>
-      </c>
-      <c r="B235" s="1">
-        <v>17.000000</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2">
-        <v>40513.7015818028</v>
-      </c>
-      <c r="B236" s="1">
-        <v>15.000000</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2">
-        <v>40513.7015933768</v>
-      </c>
-      <c r="B237" s="1">
-        <v>22.000000</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2">
-        <v>40513.7016049509</v>
-      </c>
-      <c r="B238" s="1">
-        <v>19.000000</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2">
-        <v>40513.7016165250</v>
-      </c>
-      <c r="B239" s="1">
-        <v>10.000000</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2">
-        <v>40513.7016280991</v>
-      </c>
-      <c r="B240" s="1">
-        <v>24.000000</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2">
-        <v>40513.7016396731</v>
-      </c>
-      <c r="B241" s="1">
-        <v>20.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
   </sheetData>
